--- a/doc/项目成本预算及成本管理.xlsx
+++ b/doc/项目成本预算及成本管理.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\课程\软件项目管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\proj\PixelCube\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="749" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="749"/>
   </bookViews>
   <sheets>
     <sheet name="项目成本的来源" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -190,6 +190,42 @@
   <si>
     <t>项目成本控制</t>
     <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档编号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>撰写人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC-06</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张祎琼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张祎琼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本预算及管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -202,7 +238,7 @@
     <numFmt numFmtId="178" formatCode="0.0"/>
     <numFmt numFmtId="179" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1" tint="0.34998626667073579"/>
@@ -319,6 +355,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -381,7 +425,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -542,6 +586,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -558,7 +617,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -740,6 +799,15 @@
     </xf>
     <xf numFmtId="176" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1246,11 +1314,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1247730128"/>
-        <c:axId val="1247731760"/>
+        <c:axId val="42875136"/>
+        <c:axId val="42877856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1247730128"/>
+        <c:axId val="42875136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,7 +1371,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1247731760"/>
+        <c:crossAx val="42877856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1311,7 +1379,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1247731760"/>
+        <c:axId val="42877856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1368,7 +1436,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1247730128"/>
+        <c:crossAx val="42875136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1704,11 +1772,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1247407344"/>
-        <c:axId val="1247400816"/>
+        <c:axId val="2011813824"/>
+        <c:axId val="2011814368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1247407344"/>
+        <c:axId val="2011813824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1754,7 +1822,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1247400816"/>
+        <c:crossAx val="2011814368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1762,7 +1830,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1247400816"/>
+        <c:axId val="2011814368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1829,7 +1897,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1247407344"/>
+        <c:crossAx val="2011813824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2270,10 +2338,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I42"/>
+  <dimension ref="B1:I46"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2466,27 +2534,27 @@
         <v>11</v>
       </c>
       <c r="D10" s="16">
-        <f>SUM(D5:D9)</f>
+        <f t="shared" ref="D10:I10" si="1">SUM(D5:D9)</f>
         <v>48</v>
       </c>
       <c r="E10" s="17">
-        <f>SUM(E5:E9)</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="F10" s="17">
-        <f>SUM(F5:F9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G10" s="17">
-        <f>SUM(G5:G9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H10" s="17">
-        <f>SUM(H5:H9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="17">
-        <f>SUM(I5:I9)</f>
+        <f t="shared" si="1"/>
         <v>2400</v>
       </c>
     </row>
@@ -2547,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="12">
-        <f t="shared" ref="I13:I16" si="1">SUM(F13:H13)+D13*E13</f>
+        <f t="shared" ref="I13:I16" si="2">SUM(F13:H13)+D13*E13</f>
         <v>50</v>
       </c>
     </row>
@@ -2572,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>850</v>
       </c>
     </row>
@@ -2597,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
     </row>
@@ -2622,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1800</v>
       </c>
     </row>
@@ -2632,27 +2700,27 @@
         <v>11</v>
       </c>
       <c r="D17" s="16">
-        <f>SUM(D12:D16)</f>
+        <f t="shared" ref="D17:I17" si="3">SUM(D12:D16)</f>
         <v>502</v>
       </c>
       <c r="E17" s="17">
-        <f>SUM(E12:E16)</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="F17" s="17">
-        <f>SUM(F12:F16)</f>
+        <f t="shared" si="3"/>
         <v>700</v>
       </c>
       <c r="G17" s="17">
-        <f>SUM(G12:G16)</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="H17" s="17">
-        <f>SUM(H12:H16)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I17" s="17">
-        <f>SUM(I12:I16)</f>
+        <f t="shared" si="3"/>
         <v>25900</v>
       </c>
     </row>
@@ -2713,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="12">
-        <f t="shared" ref="I20:I24" si="2">SUM(F20:H20)+D20*E20</f>
+        <f t="shared" ref="I20:I24" si="4">SUM(F20:H20)+D20*E20</f>
         <v>50</v>
       </c>
     </row>
@@ -2738,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>800</v>
       </c>
     </row>
@@ -2763,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>800</v>
       </c>
     </row>
@@ -2788,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1600</v>
       </c>
     </row>
@@ -2813,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>800</v>
       </c>
     </row>
@@ -2823,27 +2891,27 @@
         <v>11</v>
       </c>
       <c r="D25" s="16">
-        <f>SUM(D19:D24)</f>
+        <f t="shared" ref="D25:I25" si="5">SUM(D19:D24)</f>
         <v>82</v>
       </c>
       <c r="E25" s="17">
-        <f>SUM(E19:E24)</f>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="F25" s="17">
-        <f>SUM(F19:F24)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G25" s="17">
-        <f>SUM(G19:G24)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H25" s="17">
-        <f>SUM(H19:H24)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I25" s="17">
-        <f>SUM(I19:I24)</f>
+        <f t="shared" si="5"/>
         <v>4100</v>
       </c>
     </row>
@@ -2902,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="12">
-        <f t="shared" ref="I28:I32" si="3">SUM(F28:H28)+D28*E28</f>
+        <f t="shared" ref="I28:I32" si="6">SUM(F28:H28)+D28*E28</f>
         <v>800</v>
       </c>
     </row>
@@ -2927,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
     </row>
@@ -2952,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
     </row>
@@ -2977,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
     </row>
@@ -3002,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
     </row>
@@ -3012,27 +3080,27 @@
         <v>11</v>
       </c>
       <c r="D33" s="16">
-        <f>SUM(D27:D32)</f>
+        <f t="shared" ref="D33:I33" si="7">SUM(D27:D32)</f>
         <v>88</v>
       </c>
       <c r="E33" s="17">
-        <f>SUM(E27:E32)</f>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="F33" s="17">
-        <f>SUM(F27:F32)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G33" s="17">
-        <f>SUM(G27:G32)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H33" s="17">
-        <f>SUM(H27:H32)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I33" s="17">
-        <f>SUM(I27:I32)</f>
+        <f t="shared" si="7"/>
         <v>4400</v>
       </c>
     </row>
@@ -3093,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="12">
-        <f t="shared" ref="I36:I37" si="4">SUM(F36:H36)+D36*E36</f>
+        <f t="shared" ref="I36:I37" si="8">SUM(F36:H36)+D36*E36</f>
         <v>0</v>
       </c>
     </row>
@@ -3118,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3128,27 +3196,27 @@
         <v>11</v>
       </c>
       <c r="D38" s="16">
-        <f>SUM(D35:D37)</f>
+        <f t="shared" ref="D38:I38" si="9">SUM(D35:D37)</f>
         <v>2</v>
       </c>
       <c r="E38" s="17">
-        <f>SUM(E35:E37)</f>
+        <f t="shared" si="9"/>
         <v>150</v>
       </c>
       <c r="F38" s="17">
-        <f>SUM(F35:F37)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G38" s="17">
-        <f>SUM(G35:G37)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H38" s="17">
-        <f>SUM(H35:H37)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I38" s="17">
-        <f>SUM(I35:I37)</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -3167,27 +3235,27 @@
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="25">
-        <f>SUM(D38,D33,D25,D17,D10)</f>
+        <f t="shared" ref="D40:I40" si="10">SUM(D38,D33,D25,D17,D10)</f>
         <v>722</v>
       </c>
       <c r="E40" s="26">
-        <f>SUM(E38,E33,E25,E17,E10)</f>
+        <f t="shared" si="10"/>
         <v>1250</v>
       </c>
       <c r="F40" s="26">
-        <f>SUM(F38,F33,F25,F17,F10)</f>
+        <f t="shared" si="10"/>
         <v>700</v>
       </c>
       <c r="G40" s="26">
-        <f>SUM(G38,G33,G25,G17,G10)</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="H40" s="26">
-        <f>SUM(H38,H33,H25,H17,H10)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I40" s="26">
-        <f>SUM(I38,I33,I25,I17,I10)</f>
+        <f t="shared" si="10"/>
         <v>36900</v>
       </c>
     </row>
@@ -3226,24 +3294,58 @@
         <v>738</v>
       </c>
       <c r="E42" s="35">
-        <f t="shared" ref="E42:H42" si="5">SUM(E40:E41)</f>
+        <f t="shared" ref="E42:H42" si="11">SUM(E40:E41)</f>
         <v>1300</v>
       </c>
       <c r="F42" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>700</v>
       </c>
       <c r="G42" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="H42" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I42" s="35">
         <f>SUM(I40:I41)</f>
         <v>37700</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D45" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" s="64" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D46" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="63">
+        <v>41621</v>
+      </c>
+      <c r="G46" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46" s="62" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3269,7 +3371,7 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
